--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2684902.221027784</v>
+        <v>-2687268.937598341</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7240286.839065498</v>
+        <v>7240286.839065491</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>10.27816311523173</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.4309156063519</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4861680993369</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>172.8743455285724</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>186.7946578787483</v>
+        <v>94.24717300068855</v>
       </c>
       <c r="T2" t="n">
         <v>218.8263272492847</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2676262293242</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>140.1367932853046</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>133.7362405617278</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>67.75739391928613</v>
+        <v>67.7573939192859</v>
       </c>
       <c r="S3" t="n">
         <v>161.9900470300693</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.52729852330275</v>
+        <v>49.5272985233025</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>157.6217544836046</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>226.0762668767296</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>34.3380573442846</v>
       </c>
       <c r="V4" t="n">
-        <v>191.9598118278864</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.5691721741686</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>165.8404403681495</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.9124227879787</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492791</v>
+        <v>126.0955237083962</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890333</v>
+        <v>225.709655389032</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534523</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247655</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>74.75769145492409</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250807</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589007</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492409</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492184</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>74.75769145492316</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004746</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.211838205613</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>74.75769145492315</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433762</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124587</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572712</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124587</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403102</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279765</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433857</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572811</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124544</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145467</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V38" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687285</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
@@ -3910,13 +3910,13 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404354</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
         <v>307.7079050020903</v>
@@ -4031,7 +4031,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2628020374613</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>941.8641646672615</v>
+        <v>51.76688412209761</v>
       </c>
       <c r="C2" t="n">
-        <v>941.8641646672615</v>
+        <v>51.76688412209761</v>
       </c>
       <c r="D2" t="n">
-        <v>583.5984660605111</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="E2" t="n">
-        <v>583.5984660605111</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="F2" t="n">
-        <v>583.5984660605111</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="G2" t="n">
-        <v>548.8197634278324</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="H2" t="n">
-        <v>216.005452216381</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="I2" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5075126830048</v>
+        <v>111.5075126830056</v>
       </c>
       <c r="K2" t="n">
-        <v>337.3479341657387</v>
+        <v>337.3479341657403</v>
       </c>
       <c r="L2" t="n">
-        <v>669.7995747334157</v>
+        <v>669.7995747334185</v>
       </c>
       <c r="M2" t="n">
-        <v>1056.32262691126</v>
+        <v>1056.322626911264</v>
       </c>
       <c r="N2" t="n">
-        <v>1434.468028624939</v>
+        <v>1434.468028624944</v>
       </c>
       <c r="O2" t="n">
-        <v>1746.352370691372</v>
+        <v>1746.352370691378</v>
       </c>
       <c r="P2" t="n">
-        <v>1974.864058038263</v>
+        <v>1974.864058038271</v>
       </c>
       <c r="Q2" t="n">
-        <v>2069.245058870947</v>
+        <v>2069.245058870954</v>
       </c>
       <c r="R2" t="n">
-        <v>2069.245058870947</v>
+        <v>2069.245058870954</v>
       </c>
       <c r="S2" t="n">
-        <v>1880.56358626615</v>
+        <v>1974.045894223794</v>
       </c>
       <c r="T2" t="n">
-        <v>1659.526892074954</v>
+        <v>1753.009200032598</v>
       </c>
       <c r="U2" t="n">
-        <v>1659.526892074954</v>
+        <v>1499.203516972674</v>
       </c>
       <c r="V2" t="n">
-        <v>1328.464004731383</v>
+        <v>1168.140629629103</v>
       </c>
       <c r="W2" t="n">
-        <v>1328.464004731383</v>
+        <v>815.3719743589893</v>
       </c>
       <c r="X2" t="n">
-        <v>1328.464004731383</v>
+        <v>441.9062160979094</v>
       </c>
       <c r="Y2" t="n">
-        <v>1328.464004731383</v>
+        <v>51.76688412209761</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.7094678613873</v>
+        <v>362.3724884316612</v>
       </c>
       <c r="C3" t="n">
-        <v>335.7094678613873</v>
+        <v>187.9194591505341</v>
       </c>
       <c r="D3" t="n">
-        <v>335.7094678613873</v>
+        <v>187.9194591505341</v>
       </c>
       <c r="E3" t="n">
-        <v>176.4720128559318</v>
+        <v>187.9194591505341</v>
       </c>
       <c r="F3" t="n">
-        <v>176.4720128559318</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="G3" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="H3" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="I3" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="J3" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="K3" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8070759580303</v>
+        <v>383.5226295249167</v>
       </c>
       <c r="M3" t="n">
-        <v>802.0448889857698</v>
+        <v>802.0448889857746</v>
       </c>
       <c r="N3" t="n">
-        <v>1280.932637611793</v>
+        <v>1280.932637611798</v>
       </c>
       <c r="O3" t="n">
-        <v>1652.605691037767</v>
+        <v>1652.605691037774</v>
       </c>
       <c r="P3" t="n">
-        <v>1933.903016009913</v>
+        <v>1933.90301600992</v>
       </c>
       <c r="Q3" t="n">
-        <v>2069.245058870947</v>
+        <v>2069.245058870954</v>
       </c>
       <c r="R3" t="n">
-        <v>2000.803246831264</v>
+        <v>2000.803246831272</v>
       </c>
       <c r="S3" t="n">
-        <v>1837.176936699881</v>
+        <v>1837.176936699889</v>
       </c>
       <c r="T3" t="n">
-        <v>1637.115008087004</v>
+        <v>1637.115008087012</v>
       </c>
       <c r="U3" t="n">
-        <v>1408.926068811886</v>
+        <v>1408.926068811895</v>
       </c>
       <c r="V3" t="n">
-        <v>1173.773960580144</v>
+        <v>1173.773960580152</v>
       </c>
       <c r="W3" t="n">
-        <v>919.5366038519421</v>
+        <v>919.5366038519505</v>
       </c>
       <c r="X3" t="n">
-        <v>711.6851036464093</v>
+        <v>711.6851036464177</v>
       </c>
       <c r="Y3" t="n">
-        <v>503.9248048814554</v>
+        <v>503.9248048814638</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="C4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="D4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="E4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="F4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="G4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="H4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="I4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="J4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="K4" t="n">
-        <v>69.65947190116572</v>
+        <v>69.65947190116621</v>
       </c>
       <c r="L4" t="n">
-        <v>161.3676224365343</v>
+        <v>161.3676224365352</v>
       </c>
       <c r="M4" t="n">
-        <v>268.4501318390637</v>
+        <v>268.4501318390651</v>
       </c>
       <c r="N4" t="n">
-        <v>378.4210749310309</v>
+        <v>378.4210749310329</v>
       </c>
       <c r="O4" t="n">
-        <v>463.9807446748937</v>
+        <v>463.9807446748961</v>
       </c>
       <c r="P4" t="n">
-        <v>513.6711408015793</v>
+        <v>513.6711408015821</v>
       </c>
       <c r="Q4" t="n">
-        <v>463.643566535617</v>
+        <v>463.6435665356199</v>
       </c>
       <c r="R4" t="n">
-        <v>463.643566535617</v>
+        <v>304.4296731178375</v>
       </c>
       <c r="S4" t="n">
-        <v>463.643566535617</v>
+        <v>304.4296731178375</v>
       </c>
       <c r="T4" t="n">
-        <v>235.2837010035668</v>
+        <v>76.06980758578737</v>
       </c>
       <c r="U4" t="n">
-        <v>235.2837010035668</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="V4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="W4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="X4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.38490117741893</v>
+        <v>41.38490117741909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4744,28 +4744,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334889</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2220.843019855343</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>1889.780132511772</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4875,22 +4875,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4966,43 +4966,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5018,16 +5018,16 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001584</v>
@@ -5036,7 +5036,7 @@
         <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
@@ -5045,46 +5045,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1088.893283004704</v>
+        <v>1088.893283004705</v>
       </c>
       <c r="M11" t="n">
-        <v>1622.425187676629</v>
+        <v>1622.42518767663</v>
       </c>
       <c r="N11" t="n">
         <v>2602.177459903276</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.14211023273</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679676</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188664</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5109,19 +5109,19 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,13 +5130,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839438</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5239,10 +5239,10 @@
         <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433668</v>
+        <v>391.8664332433681</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998367</v>
+        <v>391.8664332433681</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551608</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844493</v>
+        <v>1622.42518767663</v>
       </c>
       <c r="N14" t="n">
         <v>2602.177459903276</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.14211023273</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679676</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188664</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142067</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.6836668953299</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,10 +5498,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001584</v>
@@ -5510,40 +5510,40 @@
         <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>786.6724891157194</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
-        <v>1622.425187676629</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903276</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.14211023273</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679676</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5558,7 +5558,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089887</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.6836668953299</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5741,61 +5741,61 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972662</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1364.144379432264</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175503</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.14211023273</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679676</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193594</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839438</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.51300886223</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
         <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258582</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384226</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783389</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413783</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433608</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998306</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.893283004707</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.425187676631</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D25" t="n">
         <v>95.56103444839442</v>
@@ -6212,49 +6212,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>304.0396960664524</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>637.8590697562988</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1088.893283004707</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>1622.425187676632</v>
+        <v>2209.609207880055</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903278</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232733</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679679</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6300,7 +6300,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390123</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215045</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416709</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774084</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430885</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160448</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819761</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6406,28 +6406,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R28" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T28" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U28" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X28" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.713999703671</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6446,40 +6446,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1088.893283004707</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M29" t="n">
-        <v>1622.425187676631</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215045</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416709</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774084</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430885</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932514</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160436</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819761</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6643,28 +6643,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.713999703671</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6707,10 +6707,10 @@
         <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
-        <v>1622.425187676631</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6777,7 +6777,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193594</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D34" t="n">
         <v>564.3616113774094</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490193</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>800.746804049922</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6883,7 +6883,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455608</v>
+        <v>810.872990474187</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.879634793969</v>
+        <v>1261.907203722596</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.190356524676</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647469</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
         <v>3835.976694641922</v>
@@ -6971,7 +6971,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873071</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899658</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960291</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973122</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498215</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572249</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557145</v>
@@ -7181,28 +7181,28 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M38" t="n">
-        <v>1588.411539465894</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N38" t="n">
-        <v>2135.190356524676</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647469</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863831</v>
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873071</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,13 +7327,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
         <v>786.332686498217</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
         <v>270.0260478557145</v>
@@ -7415,46 +7415,46 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.879634793969</v>
+        <v>1394.992678104634</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>1928.524582776559</v>
       </c>
       <c r="N41" t="n">
-        <v>2135.190356524676</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.436232647469</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873071</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7564,28 +7564,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7603,7 +7603,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.879634793969</v>
+        <v>1771.984857554752</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N44" t="n">
-        <v>2135.190356524676</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O44" t="n">
-        <v>2761.436232647469</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863831</v>
@@ -7688,7 +7688,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873071</v>
@@ -7813,7 +7813,7 @@
         <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>77.5343006517795</v>
+        <v>77.53430065177916</v>
       </c>
       <c r="K3" t="n">
-        <v>53.57420189668844</v>
+        <v>53.57420189668785</v>
       </c>
       <c r="L3" t="n">
-        <v>337.7943315995344</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>432.6590500460782</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>221.0467526719079</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>19.79750571619104</v>
+        <v>19.79750571619195</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>39.48321557772499</v>
+        <v>19.79750571619275</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.917311333789257e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>19.79750571619115</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>128.7323010770068</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>7.630896635343447</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>19.79750571619354</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>102.8529310510287</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19.79750571619459</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>288.7672650676793</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>19.79750571619354</v>
+        <v>107.5040408147568</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>19.79750571619365</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>388.4310778980906</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>40.02214132148788</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>124.5185911550063</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10829,16 +10829,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>65.51711806374396</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>124.5185911550063</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>343.5485285966311</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>124.5185911550063</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>231.106682116138</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>124.5185911550063</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>344.4048785054512</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>349.9575007754356</v>
+        <v>14.32740403373089</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4861680993369</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.3373906874019</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>62.42785781152635</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>251.9571083200588</v>
       </c>
       <c r="V4" t="n">
-        <v>60.1778314959416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270094</v>
+        <v>53.73645647354114</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>91.26811680410414</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270156</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370467</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143209</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983823</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328921</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.094235813070554e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1417555.179527657</v>
+        <v>1417555.179527658</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1417555.179527657</v>
+        <v>1417555.179527658</v>
       </c>
     </row>
     <row r="10">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407149.1034425561</v>
+        <v>407149.1034425583</v>
       </c>
       <c r="C3" t="n">
-        <v>173763.5037905506</v>
+        <v>173763.5037905485</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.17560682358453e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172931.4978406816</v>
+        <v>172931.497840682</v>
       </c>
       <c r="K3" t="n">
-        <v>40400.60123641995</v>
+        <v>40400.60123641952</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950517</v>
+        <v>84741.61795950525</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197708.9765693185</v>
+        <v>197708.9765693178</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
+        <v>28561.83935289585</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28561.8393528958</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28561.8393528958</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28561.8393528958</v>
+      </c>
+      <c r="I4" t="n">
         <v>28561.83935289577</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28561.83935289577</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28561.83935289572</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289576</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
         <v>44019.00033111482</v>
       </c>
       <c r="K4" t="n">
-        <v>44019.0003311148</v>
+        <v>44019.00033111482</v>
       </c>
       <c r="L4" t="n">
-        <v>44019.00033111481</v>
+        <v>44019.00033111482</v>
       </c>
       <c r="M4" t="n">
-        <v>64344.18042540632</v>
+        <v>64344.18042540628</v>
       </c>
       <c r="N4" t="n">
-        <v>64344.18042540624</v>
+        <v>64344.18042540625</v>
       </c>
       <c r="O4" t="n">
-        <v>64344.18042540624</v>
+        <v>64344.18042540622</v>
       </c>
       <c r="P4" t="n">
-        <v>64344.18042540626</v>
+        <v>64344.18042540629</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70369.11453112274</v>
+        <v>70369.1145311229</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675227.1945429973</v>
+        <v>-675494.4655856373</v>
       </c>
       <c r="C6" t="n">
-        <v>-466544.9973169933</v>
+        <v>-466544.9973169912</v>
       </c>
       <c r="D6" t="n">
         <v>-292781.4935264428</v>
       </c>
       <c r="E6" t="n">
-        <v>-852322.7716000159</v>
+        <v>-852389.9670902418</v>
       </c>
       <c r="F6" t="n">
-        <v>-124945.3576066094</v>
+        <v>-125012.5530968352</v>
       </c>
       <c r="G6" t="n">
-        <v>-124945.3576066093</v>
+        <v>-125012.5530968352</v>
       </c>
       <c r="H6" t="n">
-        <v>-124945.3576066093</v>
+        <v>-125012.5530968352</v>
       </c>
       <c r="I6" t="n">
-        <v>-124945.3576066096</v>
+        <v>-125012.5530968352</v>
       </c>
       <c r="J6" t="n">
-        <v>-317283.1691858986</v>
+        <v>-317283.169185899</v>
       </c>
       <c r="K6" t="n">
-        <v>-184752.2725816368</v>
+        <v>-184752.2725816364</v>
       </c>
       <c r="L6" t="n">
         <v>-144351.6713452169</v>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6142034992824</v>
+        <v>242.614203499284</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.3112647177367</v>
+        <v>517.3112647177386</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6142034992824</v>
+        <v>242.614203499284</v>
       </c>
       <c r="C3" t="n">
-        <v>135.1294607178042</v>
+        <v>135.1294607178026</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.3112647177367</v>
+        <v>517.3112647177386</v>
       </c>
       <c r="C4" t="n">
-        <v>156.9760080368189</v>
+        <v>156.976008036817</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.3112647177369</v>
+        <v>517.3112647177386</v>
       </c>
       <c r="K4" t="n">
-        <v>156.9760080368187</v>
+        <v>156.976008036817</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540584</v>
+        <v>340.0491884540587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.3112647177367</v>
+        <v>517.3112647177386</v>
       </c>
       <c r="K4" t="n">
-        <v>156.9760080368189</v>
+        <v>156.976008036817</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>29.93898765194342</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>172.8743455285721</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>88.60232613989623</v>
+        <v>88.60232613989581</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>92.54748487805958</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2676262293242</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>26.39639036456276</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.085427182635328</v>
+        <v>136.8216677443631</v>
       </c>
       <c r="H3" t="n">
-        <v>107.195477480785</v>
+        <v>107.1954774807849</v>
       </c>
       <c r="I3" t="n">
-        <v>71.42944891302483</v>
+        <v>71.4294489130247</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.5534783357551</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>158.3373906874019</v>
       </c>
       <c r="I4" t="n">
         <v>142.2936259899529</v>
       </c>
       <c r="J4" t="n">
-        <v>62.42785781152656</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>157.6217544836047</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>216.3921483958555</v>
+        <v>216.3921483958554</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2951656643434</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54.16466948931196</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.9968953246364</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.2331161620402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.575272440822005</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>270.6105755486123</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28141,22 +28141,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3.796617681797508e-12</v>
+        <v>5.111322724472665e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28327,25 +28327,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28381,19 +28381,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.20792265079217e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859037</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859215</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859182</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859193</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30763,7 +30763,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9753334814041494</v>
+        <v>0.9753334814041562</v>
       </c>
       <c r="H2" t="n">
-        <v>9.988634016430249</v>
+        <v>9.988634016430318</v>
       </c>
       <c r="I2" t="n">
-        <v>37.60154404183351</v>
+        <v>37.60154404183377</v>
       </c>
       <c r="J2" t="n">
-        <v>82.7802100673255</v>
+        <v>82.78021006732608</v>
       </c>
       <c r="K2" t="n">
-        <v>124.0660763351632</v>
+        <v>124.066076335164</v>
       </c>
       <c r="L2" t="n">
-        <v>153.9149383666854</v>
+        <v>153.9149383666865</v>
       </c>
       <c r="M2" t="n">
-        <v>171.2600251666065</v>
+        <v>171.2600251666076</v>
       </c>
       <c r="N2" t="n">
-        <v>174.031191420646</v>
+        <v>174.0311914206472</v>
       </c>
       <c r="O2" t="n">
-        <v>164.3327191149335</v>
+        <v>164.3327191149346</v>
       </c>
       <c r="P2" t="n">
-        <v>140.2541737927685</v>
+        <v>140.2541737927695</v>
       </c>
       <c r="Q2" t="n">
-        <v>105.3250434899824</v>
+        <v>105.3250434899831</v>
       </c>
       <c r="R2" t="n">
-        <v>61.26679180125345</v>
+        <v>61.26679180125388</v>
       </c>
       <c r="S2" t="n">
-        <v>22.22541170749708</v>
+        <v>22.22541170749723</v>
       </c>
       <c r="T2" t="n">
-        <v>4.269522314846666</v>
+        <v>4.269522314846696</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07802667851233194</v>
+        <v>0.07802667851233248</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.521849418847513</v>
+        <v>0.5218494188475166</v>
       </c>
       <c r="H3" t="n">
-        <v>5.039966755711508</v>
+        <v>5.039966755711543</v>
       </c>
       <c r="I3" t="n">
-        <v>17.96718393839025</v>
+        <v>17.96718393839038</v>
       </c>
       <c r="J3" t="n">
-        <v>49.30332601488719</v>
+        <v>49.30332601488753</v>
       </c>
       <c r="K3" t="n">
-        <v>84.26723707767056</v>
+        <v>84.26723707767114</v>
       </c>
       <c r="L3" t="n">
-        <v>113.3076994738865</v>
+        <v>113.3076994738873</v>
       </c>
       <c r="M3" t="n">
-        <v>132.2247409071089</v>
+        <v>132.2247409071098</v>
       </c>
       <c r="N3" t="n">
-        <v>135.724336351924</v>
+        <v>135.724336351925</v>
       </c>
       <c r="O3" t="n">
-        <v>124.1612518606186</v>
+        <v>124.1612518606194</v>
       </c>
       <c r="P3" t="n">
-        <v>99.6503508674694</v>
+        <v>99.65035086747008</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.61362055323693</v>
+        <v>66.61362055323738</v>
       </c>
       <c r="R3" t="n">
-        <v>32.400440233357</v>
+        <v>32.40044023335723</v>
       </c>
       <c r="S3" t="n">
-        <v>9.693124073768491</v>
+        <v>9.693124073768558</v>
       </c>
       <c r="T3" t="n">
-        <v>2.103419368073966</v>
+        <v>2.103419368073981</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03433219860838903</v>
+        <v>0.03433219860838926</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4375010227036238</v>
+        <v>0.4375010227036269</v>
       </c>
       <c r="H4" t="n">
-        <v>3.889781820037677</v>
+        <v>3.889781820037704</v>
       </c>
       <c r="I4" t="n">
-        <v>13.15684893730535</v>
+        <v>13.15684893730544</v>
       </c>
       <c r="J4" t="n">
-        <v>30.93132230514621</v>
+        <v>30.93132230514642</v>
       </c>
       <c r="K4" t="n">
-        <v>50.82966427411193</v>
+        <v>50.82966427411228</v>
       </c>
       <c r="L4" t="n">
-        <v>65.04447022995515</v>
+        <v>65.04447022995559</v>
       </c>
       <c r="M4" t="n">
-        <v>68.58027394980532</v>
+        <v>68.5802739498058</v>
       </c>
       <c r="N4" t="n">
-        <v>66.94958831972824</v>
+        <v>66.94958831972869</v>
       </c>
       <c r="O4" t="n">
-        <v>61.83878091814497</v>
+        <v>61.8387809181454</v>
       </c>
       <c r="P4" t="n">
-        <v>52.91376005499099</v>
+        <v>52.91376005499136</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.63474472839163</v>
+        <v>36.63474472839189</v>
       </c>
       <c r="R4" t="n">
-        <v>19.67163689356476</v>
+        <v>19.67163689356489</v>
       </c>
       <c r="S4" t="n">
-        <v>7.624449641116787</v>
+        <v>7.624449641116841</v>
       </c>
       <c r="T4" t="n">
-        <v>1.869322551551847</v>
+        <v>1.86932255155186</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02386369214747042</v>
+        <v>0.02386369214747059</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -33497,10 +33497,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>70.83092071271298</v>
+        <v>70.83092071271356</v>
       </c>
       <c r="K2" t="n">
-        <v>228.1216378613474</v>
+        <v>228.1216378613482</v>
       </c>
       <c r="L2" t="n">
-        <v>335.8097379471486</v>
+        <v>335.8097379471497</v>
       </c>
       <c r="M2" t="n">
-        <v>390.4273254321662</v>
+        <v>390.4273254321674</v>
       </c>
       <c r="N2" t="n">
-        <v>381.9650522360392</v>
+        <v>381.9650522360405</v>
       </c>
       <c r="O2" t="n">
-        <v>315.0346889559921</v>
+        <v>315.0346889559933</v>
       </c>
       <c r="P2" t="n">
-        <v>230.8198862089816</v>
+        <v>230.8198862089826</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.33434427543762</v>
+        <v>95.33434427543834</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>312.5476512935468</v>
+        <v>345.5936649974723</v>
       </c>
       <c r="M3" t="n">
-        <v>455.7957707350905</v>
+        <v>422.7497570311696</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7249986121442</v>
+        <v>483.7249986121452</v>
       </c>
       <c r="O3" t="n">
-        <v>375.4273266929036</v>
+        <v>375.4273266929046</v>
       </c>
       <c r="P3" t="n">
-        <v>284.1387120930763</v>
+        <v>284.138712093077</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.7091342030645</v>
+        <v>136.709134203065</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.56017244822907</v>
+        <v>28.56017244822942</v>
       </c>
       <c r="L4" t="n">
-        <v>92.63449549027129</v>
+        <v>92.63449549027173</v>
       </c>
       <c r="M4" t="n">
-        <v>108.1641509116459</v>
+        <v>108.1641509116464</v>
       </c>
       <c r="N4" t="n">
-        <v>111.0817606989568</v>
+        <v>111.0817606989573</v>
       </c>
       <c r="O4" t="n">
-        <v>86.42390883218465</v>
+        <v>86.42390883218508</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19231931988448</v>
+        <v>50.19231931988485</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>475.3876201085232</v>
+        <v>475.3876201085241</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>578.4043314079518</v>
+        <v>558.7186215464193</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>507.3053774831309</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>558.7186215464179</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597769</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>584.3224154693387</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>559.9327320482547</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509644</v>
@@ -36139,10 +36139,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306608</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701979</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.3942385378935</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>475.3876201085255</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>655.1547664639399</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>210.5845066849071</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>827.6883808979059</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597766</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887906</v>
@@ -36765,13 +36765,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>475.3876201085255</v>
+        <v>563.0941552070888</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887906</v>
@@ -37002,13 +37002,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>558.7186215464202</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>940.7329133110019</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908542</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>377.2134278768883</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>632.5715920432253</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165657</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>604.4382338939705</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>632.5715920432253</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>799.1386429889631</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>632.5715920432253</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>686.6967965084699</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>632.5715920432253</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
